--- a/Symphony/2021/July/04.07.2021/MC Bank Statement June-2021.xlsx
+++ b/Symphony/2021/July/04.07.2021/MC Bank Statement June-2021.xlsx
@@ -2904,6 +2904,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2931,22 +2943,10 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5936,67 +5936,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="350" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
-      <c r="N1" s="346"/>
-      <c r="O1" s="346"/>
-      <c r="P1" s="346"/>
-      <c r="Q1" s="346"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
+      <c r="P1" s="350"/>
+      <c r="Q1" s="350"/>
     </row>
     <row r="2" spans="1:24" s="111" customFormat="1" ht="18">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="351" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="351"/>
+      <c r="N2" s="351"/>
+      <c r="O2" s="351"/>
+      <c r="P2" s="351"/>
+      <c r="Q2" s="351"/>
     </row>
     <row r="3" spans="1:24" s="112" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="352" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="349"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
-      <c r="O3" s="349"/>
-      <c r="P3" s="349"/>
-      <c r="Q3" s="350"/>
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353"/>
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="353"/>
+      <c r="N3" s="353"/>
+      <c r="O3" s="353"/>
+      <c r="P3" s="353"/>
+      <c r="Q3" s="354"/>
       <c r="S3" s="94"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6005,52 +6005,52 @@
       <c r="X3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="113" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="355" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="353" t="s">
+      <c r="B4" s="357" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="355" t="s">
+      <c r="C4" s="346" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="355" t="s">
+      <c r="D4" s="346" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="346" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="355" t="s">
+      <c r="F4" s="346" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="355" t="s">
+      <c r="G4" s="346" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="355" t="s">
+      <c r="H4" s="346" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="355" t="s">
+      <c r="I4" s="346" t="s">
         <v>180</v>
       </c>
-      <c r="J4" s="355" t="s">
+      <c r="J4" s="346" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="355" t="s">
+      <c r="K4" s="346" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="355" t="s">
+      <c r="L4" s="346" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="355" t="s">
+      <c r="M4" s="346" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="355" t="s">
+      <c r="N4" s="346" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="359" t="s">
+      <c r="O4" s="348" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="359" t="s">
         <v>93</v>
       </c>
       <c r="Q4" s="184" t="s">
@@ -6063,22 +6063,22 @@
       <c r="W4" s="115"/>
     </row>
     <row r="5" spans="1:24" s="113" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="352"/>
-      <c r="B5" s="354"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="I5" s="356"/>
-      <c r="J5" s="356"/>
-      <c r="K5" s="356"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="356"/>
-      <c r="N5" s="356"/>
-      <c r="O5" s="360"/>
-      <c r="P5" s="358"/>
+      <c r="A5" s="356"/>
+      <c r="B5" s="358"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="349"/>
+      <c r="P5" s="360"/>
       <c r="Q5" s="185" t="s">
         <v>62</v>
       </c>
@@ -8979,8 +8979,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
@@ -8998,6 +8996,8 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -32097,7 +32097,7 @@
   <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32211,7 +32211,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="68">
-        <v>10366712.562619001</v>
+        <v>10360246.692619</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="53">
@@ -32247,7 +32247,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="67">
-        <v>3449.9300000000026</v>
+        <v>3634.0600000000027</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="65" t="s">
@@ -32291,7 +32291,7 @@
         <v>88</v>
       </c>
       <c r="E7" s="158">
-        <v>42710.367380999029</v>
+        <v>49360.36738099996</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="53"/>
@@ -32397,7 +32397,7 @@
       </c>
       <c r="B10" s="71">
         <f>B6-B8-B9</f>
-        <v>3069.9300000000026</v>
+        <v>3254.0600000000027</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66" t="s">
@@ -32549,7 +32549,7 @@
       </c>
       <c r="B14" s="70">
         <f>B5+B6-B8-B9+B12</f>
-        <v>8303069.9299999997</v>
+        <v>8303254.0599999996</v>
       </c>
       <c r="C14" s="66"/>
       <c r="D14" s="66" t="s">
@@ -32557,7 +32557,7 @@
       </c>
       <c r="E14" s="69">
         <f>E5+E6+E7+E8+E9+E10+E11+E12+E13</f>
-        <v>8303069.9299999997</v>
+        <v>8303254.0599999987</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="159">
